--- a/data/trans_bre/P37A-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P37A-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,55</t>
+          <t>-10,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,59%</t>
+          <t>-11,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,2%</t>
+          <t>-8,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,68%</t>
+          <t>-13,79%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-10,48%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-14,49%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,6; -0,11</t>
+          <t>-15,5; 3,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,01; -0,19</t>
+          <t>-20,26; -1,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 5,74</t>
+          <t>-18,05; 1,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,92; -0,2</t>
+          <t>-21,2; -0,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,02; -0,62</t>
+          <t>-18,73; 4,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 8,32</t>
+          <t>-24,81; -1,78</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-22,12; 2,65</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-26,35; -1,14</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,36</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,47</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-20,43</t>
+          <t>-17,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,35%</t>
+          <t>-19,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,03%</t>
+          <t>-7,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-24,26%</t>
+          <t>-9,22%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-21,0%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-24,9%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,1; -0,65</t>
+          <t>-15,68; 5,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,71; -3,9</t>
+          <t>-17,04; 4,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,95; -11,71</t>
+          <t>-27,48; -6,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,33; -0,93</t>
+          <t>-32,12; -7,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,18; -5,08</t>
+          <t>-19,09; 8,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,72; -14,76</t>
+          <t>-21,3; 6,97</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-32,67; -8,73</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-39,91; -10,39</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-11,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-14,72</t>
+          <t>-19,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,45</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,72%</t>
+          <t>-6,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,7%</t>
+          <t>-13,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,76%</t>
+          <t>-22,58%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-8,54%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 11,58</t>
+          <t>-31,17; 7,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 1,19</t>
+          <t>-39,6; 2,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 18,32</t>
+          <t>-23,62; 45,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 16,43</t>
+          <t>-30,05; 17,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,6; 1,24</t>
+          <t>-33,33; 9,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 27,11</t>
+          <t>-42,24; 1,69</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-26,18; 140,22</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-32,98; 26,74</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,98</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,57</t>
+          <t>-10,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,68</t>
+          <t>-10,26</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,87%</t>
+          <t>-13,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,22%</t>
+          <t>-8,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,55%</t>
+          <t>-13,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-13,32%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-17,94%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -2,65</t>
+          <t>-13,48; 0,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,64; -5,4</t>
+          <t>-16,58; -3,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,34; -4,94</t>
+          <t>-16,96; -1,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,91; -3,47</t>
+          <t>-22,08; -6,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,93; -6,95</t>
+          <t>-16,26; 0,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,92; -6,34</t>
+          <t>-20,64; -4,07</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-20,96; -2,3</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-27,32; -8,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P37A-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P37A-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-6,34</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-10,66</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,89</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-11,19</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-8,07%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-13,79%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-10,48%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-14,49%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-6.914548323816383</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-11.28169639553913</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-8.040604491196934</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-10.754885642405</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.08794932541171449</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1450280794480388</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1063072790924271</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1395575376180274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,5; 3,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-20,26; -1,27</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,05; 1,64</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-21,2; -0,81</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-18,73; 4,39</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-24,81; -1,78</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-22,12; 2,65</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-26,35; -1,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.91427011567655</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-20.86732550872912</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-17.92258814772882</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-21.02145231512182</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1948890278151441</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2577831771818002</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2264681115739819</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2622238700313227</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.115558814098731</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-2.206392978383297</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.624231582413595</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-0.2817227863633071</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.04172801225193704</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>-0.03095173192954558</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.01933651308376667</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.0030823074758796</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,49</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-7,02</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-17,15</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-19,16</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-7,11%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-9,22%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-21,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-24,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-15,68; 5,9</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-17,04; 4,86</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-27,48; -6,54</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-32,12; -7,62</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-19,09; 8,51</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-21,3; 6,97</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-32,67; -8,73</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-39,91; -10,39</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-5.163174227502598</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-5.898829733475153</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-17.59085167757918</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-18.75844300630362</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.06772315853528267</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.07834669542591666</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2146984218005822</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2424784636260161</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-11,91</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-19,5</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,56</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-6,95</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-13,59%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-22,58%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>8,25%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-8,54%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-15.78250947618437</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-16.33695047316213</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-27.84044676067502</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-30.49026935985187</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1956881236242577</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2074365703253893</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3285933487017985</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3796450717009253</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-31,17; 7,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-39,6; 2,41</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-23,62; 45,98</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-30,05; 17,56</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-33,33; 9,83</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-42,24; 1,69</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-26,18; 140,22</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-32,98; 26,74</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.399117140526549</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.418443639054547</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-6.777120013999824</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-6.950679140004419</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.1137616736625432</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.09648997267314167</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.0902719246565921</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.101506031350962</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,67</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-10,11</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-10,26</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-13,91</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-8,44%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-13,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-13,32%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-17,94%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-12.13398150574431</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-19.13406953305073</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.148503788237456</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-9.166305074191271</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1381841897090519</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.2216948648542819</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.06062517187542234</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1106856484864723</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-13,48; 0,51</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-16,58; -3,09</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-16,96; -1,59</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-22,08; -6,46</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-16,26; 0,45</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-20,64; -4,07</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-20,96; -2,3</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-27,32; -8,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-31.44161760737647</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-38.93346460720844</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-24.03228894808525</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-31.2012578146494</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.3396678299255609</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4130941277471309</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2682676138826781</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3441310789714965</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.069966270011322</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.199894405420466</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>44.73267713341602</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.15314072661835</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.08927454264868986</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.03916442690001012</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.379861673284127</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2108566801958442</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-6.686545114825693</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-9.872948267723524</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-10.73555666924985</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-13.75548942069411</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.08513317354187629</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.127216758174854</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1384633049143076</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1767903276405036</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-13.976670934895</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-16.2339740098352</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-17.3226459501678</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-21.82885686846663</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1708699183181401</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2025834006840121</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.215003715334266</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2699601595820441</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.1975527501534259</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-2.595236000201206</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-2.558873236474655</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-6.289334138713065</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.001848196459614075</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.03559798217449631</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.0360649661385799</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.08574209667266021</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
